--- a/employees.xlsx
+++ b/employees.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\uncommonStudent\Desktop\Payslip Generator Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E32DBFE7-D985-4F0D-B5FF-5BC40BBB09D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60C46ABE-1160-4156-98B4-92D10774CF20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{95F51247-9479-4F8F-898D-54689694BBC9}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Employee ID</t>
   </si>
@@ -52,42 +52,6 @@
   </si>
   <si>
     <t>Deductions</t>
-  </si>
-  <si>
-    <t>Shaine Kaduhwa</t>
-  </si>
-  <si>
-    <t>Nashe Graphix</t>
-  </si>
-  <si>
-    <t>Emmerson Mutero</t>
-  </si>
-  <si>
-    <t>nashegraphix@gmail.com</t>
-  </si>
-  <si>
-    <t>kaduwashaine20@gmail.com</t>
-  </si>
-  <si>
-    <t>ej.mutero@gmail.com</t>
-  </si>
-  <si>
-    <t>Tinashe Wutete</t>
-  </si>
-  <si>
-    <t>tinashewutete37@gmail.com</t>
-  </si>
-  <si>
-    <t>nicolaskudzai696@gmail.com</t>
-  </si>
-  <si>
-    <t>Kudzai Tivatye</t>
-  </si>
-  <si>
-    <t>Dylan Maupa</t>
-  </si>
-  <si>
-    <t>dylan.maupa@uncommon.org</t>
   </si>
 </sst>
 </file>
@@ -466,7 +430,7 @@
   <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -501,12 +465,7 @@
       <c r="A2">
         <v>1001</v>
       </c>
-      <c r="C2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>14</v>
-      </c>
+      <c r="E2" s="3"/>
       <c r="G2" s="4">
         <v>1200</v>
       </c>
@@ -521,12 +480,7 @@
       <c r="A3">
         <v>1002</v>
       </c>
-      <c r="C3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>13</v>
-      </c>
+      <c r="E3" s="3"/>
       <c r="G3">
         <v>1300</v>
       </c>
@@ -541,12 +495,7 @@
       <c r="A4">
         <v>1003</v>
       </c>
-      <c r="C4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>10</v>
-      </c>
+      <c r="E4" s="3"/>
       <c r="G4">
         <v>1400</v>
       </c>
@@ -561,12 +510,7 @@
       <c r="A5">
         <v>1004</v>
       </c>
-      <c r="C5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>9</v>
-      </c>
+      <c r="E5" s="3"/>
       <c r="G5">
         <v>1500</v>
       </c>
@@ -581,12 +525,7 @@
       <c r="A6">
         <v>1005</v>
       </c>
-      <c r="C6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>11</v>
-      </c>
+      <c r="E6" s="3"/>
       <c r="G6">
         <v>1600</v>
       </c>
@@ -601,12 +540,7 @@
       <c r="A7">
         <v>1006</v>
       </c>
-      <c r="C7" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>17</v>
-      </c>
+      <c r="E7" s="3"/>
       <c r="G7">
         <v>1700</v>
       </c>
@@ -618,15 +552,7 @@
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="E5" r:id="rId1" xr:uid="{465075BC-B0EA-4293-AAC8-E3E81379BABD}"/>
-    <hyperlink ref="E4" r:id="rId2" xr:uid="{8E171492-CFF9-43FC-90E6-7CCCFF88E7BA}"/>
-    <hyperlink ref="E6" r:id="rId3" xr:uid="{04A1B41A-8F53-418A-B61F-D8F4EB9B1FD2}"/>
-    <hyperlink ref="E3" r:id="rId4" xr:uid="{28144724-37E3-4584-8988-894310791FD1}"/>
-    <hyperlink ref="E2" r:id="rId5" xr:uid="{9E90FD61-2301-4CD4-BD33-2A38D90CA0C9}"/>
-    <hyperlink ref="E7" r:id="rId6" xr:uid="{E02FE10E-6D8C-4B27-BDBE-6FF4B780336C}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId7"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>